--- a/Scheduling Daily Life/jadwal.xlsx
+++ b/Scheduling Daily Life/jadwal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\l\Python dump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D5BF1-AC44-44B9-B899-6C8A56783242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4DB6D-3AD1-4D53-9923-218EC731F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5376" yWindow="756" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Waktu</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Weekend</t>
-  </si>
-  <si>
-    <t>Makan</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -461,35 +458,18 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>1</v>
       </c>
     </row>
